--- a/elo算法公式.xlsx
+++ b/elo算法公式.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>玩家A初始积分</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>玩家A胜负得分,不需要修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家A本局分数变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家B本局分数变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家A,B的初始积分和玩家A的胜负结果计算新的积分
+绿色为可以修改的输入参数.
+K是特殊参数,请保持K的值和服务器的K值一致.具体K值请问服务器程序员</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +111,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +155,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,8 +174,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,8 +215,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,11 +235,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="计算" xfId="5" builtinId="22"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="输出" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -451,9 +556,10 @@
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,29 +572,36 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="B2" s="1">
         <v>1600</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>IF(D2 = "胜",1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F2" s="3">
+        <f>1 - E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -496,17 +609,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <f>1/(1+10^((B2-A2)/400))</f>
-        <v>0.35993500019711488</v>
+        <v>0.75974692664795784</v>
       </c>
       <c r="B5" s="2">
         <f>1-A5</f>
-        <v>0.64006499980288512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.24025307335204216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -514,14 +627,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <f xml:space="preserve"> A2 + C2 * (E2 - A5)</f>
-        <v>1520.4820799936924</v>
-      </c>
-      <c r="B9">
-        <f xml:space="preserve"> B2 + C2 * (E2 - B5)</f>
-        <v>1611.5179200063076</v>
+        <v>1807.6880983472654</v>
+      </c>
+      <c r="B9" s="3">
+        <f xml:space="preserve"> B2 + C2 * (F2 - B5)</f>
+        <v>1592.3119016527346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <f>A9- A2</f>
+        <v>7.6880983472653952</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B9 - B2</f>
+        <v>-7.6880983472653952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="81">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
